--- a/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>14.66063414396488</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.27290790835707</v>
+        <v>11.27290790835708</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>22.95752894526887</v>
@@ -664,7 +664,7 @@
         <v>16.09116479598388</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.322844266572231</v>
+        <v>9.322844266572236</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>23.15540602660631</v>
+        <v>22.54080003474445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.94161939030817</v>
+        <v>13.22781498142506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.492030569818298</v>
+        <v>0.9201780421361461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.99180242402032</v>
+        <v>16.16201776111852</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>10.26349845770413</v>
+        <v>10.42897085838339</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.629621049929111</v>
+        <v>7.609571973383828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>19.82601423989835</v>
+        <v>19.97305488605163</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.95200204695889</v>
+        <v>12.82337963416461</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.265240041247272</v>
+        <v>6.491010224507872</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.95570681133397</v>
+        <v>31.69196627080312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.69676616282471</v>
+        <v>22.31726392376514</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.65498890870425</v>
+        <v>10.45660991473812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.49431694263012</v>
+        <v>23.53620788043024</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.77776330250135</v>
+        <v>18.75133298754732</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.03052894090695</v>
+        <v>14.78196372788374</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>25.63300839759694</v>
+        <v>26.03421164296483</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.17864412568129</v>
+        <v>18.90081257293734</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.99805321279154</v>
+        <v>12.4350182253113</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5612013955991537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4315210098353763</v>
+        <v>0.4315210098353765</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.9688110194698833</v>
@@ -769,7 +769,7 @@
         <v>0.6790494659778145</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3934253673289235</v>
+        <v>0.3934253673289237</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.034050846496791</v>
+        <v>1.01685211551016</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5799121770942848</v>
+        <v>0.583299305148873</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.06673413498799043</v>
+        <v>0.03932098446689517</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5619706774245122</v>
+        <v>0.57493365380543</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.377106024617645</v>
+        <v>0.3744576591210191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2733066203884466</v>
+        <v>0.2736534951479631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7881872136201697</v>
+        <v>0.7844959216847762</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5119136156359367</v>
+        <v>0.5149198729239289</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2499943110517376</v>
+        <v>0.2553254676802399</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.70941080396642</v>
+        <v>1.758118471373654</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.218376465245427</v>
+        <v>1.1957802921455</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5709685395788593</v>
+        <v>0.5426970103084526</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9641140169855626</v>
+        <v>0.9733085648042161</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7679029412012832</v>
+        <v>0.7593411489662647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6281012522975441</v>
+        <v>0.6119491502124721</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.136052459145515</v>
+        <v>1.150898058082056</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8509931550291713</v>
+        <v>0.8389665841898449</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5342614358309938</v>
+        <v>0.5574075367445362</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>28.63490631510041</v>
+        <v>29.07939359417073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.83829065505125</v>
+        <v>15.99462606022298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.083168418281053</v>
+        <v>-1.154673891980698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30.86232012864741</v>
+        <v>31.00136530523512</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>19.90185795621652</v>
+        <v>20.19746468007125</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.184848633395517</v>
+        <v>-3.435701580913804</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>30.96393761330495</v>
+        <v>30.94949923514552</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>19.47937269681404</v>
+        <v>19.1941366222493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.28014518520457</v>
+        <v>-1.224451166145269</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>36.05498118161734</v>
+        <v>36.15599954088339</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.8926841894946</v>
+        <v>23.42207586277805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.637371129696326</v>
+        <v>5.793545026048641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37.76587408713996</v>
+        <v>37.89284101012635</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>26.95622138057667</v>
+        <v>27.10470706408625</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.050510229850576</v>
+        <v>2.918051447952424</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36.13699483044412</v>
+        <v>36.12406904532453</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>24.33316106689412</v>
+        <v>24.16280944847831</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.457394325755121</v>
+        <v>3.419986625949313</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.189050135001892</v>
+        <v>1.211450027713699</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.6476317908751079</v>
+        <v>0.6593043476123129</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05117923169846248</v>
+        <v>-0.0467467757966942</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.11218824959795</v>
+        <v>1.109408799620729</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.728473156966768</v>
+        <v>0.7343714775241559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1156650024692422</v>
+        <v>-0.1236517709743503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.220991229121187</v>
+        <v>1.221203374191678</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7706316202537008</v>
+        <v>0.7548298728338653</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05077923925168433</v>
+        <v>-0.05130369283628905</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.796413660884137</v>
+        <v>1.787537432138569</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.127515194488691</v>
+        <v>1.165170327780257</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2753579759946181</v>
+        <v>0.2844950104246005</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.577542798818784</v>
+        <v>1.586373253564638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.140934278333193</v>
+        <v>1.141214954132817</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1288952004850323</v>
+        <v>0.1185795060499944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.605183318821478</v>
+        <v>1.611303086916465</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.079747289108635</v>
+        <v>1.06421870967515</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1501797246612516</v>
+        <v>0.1500788691362339</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>23.53102428853884</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-7.215288342104928</v>
+        <v>-7.215288342104925</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>27.60930699437959</v>
@@ -1092,7 +1092,7 @@
         <v>23.58004817766304</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-5.374869933498455</v>
+        <v>-5.374869933498458</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.99477203414438</v>
+        <v>18.96446032397273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.76927887071457</v>
+        <v>16.26732475838761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.697926047376885</v>
+        <v>-10.34649422889323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21.37556588551291</v>
+        <v>21.74641448819</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.13398270117822</v>
+        <v>16.68173233001315</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.11687130056504</v>
+        <v>-13.06933143302542</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>22.74495925730623</v>
+        <v>22.74494766705304</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>18.35721122478507</v>
+        <v>18.62458846656752</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.602078608303962</v>
+        <v>-9.618114967784114</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>33.65906014592409</v>
+        <v>32.77031044365866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.65485922225385</v>
+        <v>30.66118507585713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.388359335527597</v>
+        <v>2.822488227715015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35.72616003100643</v>
+        <v>35.8297634418614</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>30.26692782123576</v>
+        <v>30.86375640394679</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.931256512558975</v>
+        <v>-1.921098186995871</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>32.58519641179123</v>
+        <v>32.65103014009809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>28.14643168781651</v>
+        <v>28.74913697385351</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.290008740283543</v>
+        <v>-1.268326992910018</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.8492344942313571</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2603997034215534</v>
+        <v>-0.2603997034215533</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.054993507722644</v>
@@ -1197,7 +1197,7 @@
         <v>0.9010294153448263</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2053819346443153</v>
+        <v>-0.2053819346443155</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6794520317843129</v>
+        <v>0.6919938076565934</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5510379092444616</v>
+        <v>0.5708680922057026</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3440204963306773</v>
+        <v>-0.3650225666086227</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6726657351750488</v>
+        <v>0.6913667272749497</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5082129928526896</v>
+        <v>0.5445007201728366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4076870573107199</v>
+        <v>-0.4071905048668741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.784138979982745</v>
+        <v>0.779092227672749</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6411809460873165</v>
+        <v>0.6538645133789224</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3358333405392961</v>
+        <v>-0.3360823149091866</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.611032952416719</v>
+        <v>1.533724850961199</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.487517171730641</v>
+        <v>1.420387177876979</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1172849007739017</v>
+        <v>0.1350657205143637</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.47737322708803</v>
+        <v>1.505859027020074</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.247001142528219</v>
+        <v>1.327067168805856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.07164916155041598</v>
+        <v>-0.06848954798490996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.356616549495923</v>
+        <v>1.393596548291372</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.187030832823153</v>
+        <v>1.227510985345744</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05536983501278692</v>
+        <v>-0.05240487031705991</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>20.75542129718275</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.550435457351129</v>
+        <v>1.550435457351135</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>28.87232956229466</v>
@@ -1306,7 +1306,7 @@
         <v>20.31765266495242</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.90350744639905</v>
+        <v>1.903507446399055</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>27.37513699798989</v>
+        <v>27.16656986270283</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.10793269657803</v>
+        <v>17.09463822056823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3746609986770416</v>
+        <v>-0.3531359740990863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25.28213886934558</v>
+        <v>25.65071547631333</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>18.47835032080267</v>
+        <v>18.23661804313215</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4875265387668986</v>
+        <v>-0.7381824765339733</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>27.02719441121071</v>
+        <v>27.13492682373839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.68072574997343</v>
+        <v>18.52190224780004</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2568342778940766</v>
+        <v>0.08294768433151582</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>32.49472909735388</v>
+        <v>32.45950218206355</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.49469566330698</v>
+        <v>22.21181395716412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.603935982329478</v>
+        <v>4.588374577115609</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30.43001296087308</v>
+        <v>30.1127752068859</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>23.14046984135453</v>
+        <v>23.23847971490082</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.751718503640256</v>
+        <v>3.643027346670517</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>30.65193375563336</v>
+        <v>30.49916466727064</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>22.2468469365106</v>
+        <v>22.33498425255866</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.603712613898797</v>
+        <v>3.542562671553647</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.7925328990901269</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05920241705878575</v>
+        <v>0.05920241705878596</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.19415326258857</v>
@@ -1411,7 +1411,7 @@
         <v>0.8403336892385492</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.07872865341796162</v>
+        <v>0.07872865341796184</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.171589098878756</v>
+        <v>1.163036474940923</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7428208417931466</v>
+        <v>0.7352022968775158</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01558164108388762</v>
+        <v>-0.01504441555801369</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.9140440722784995</v>
+        <v>0.9368145563128163</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6714453901553942</v>
+        <v>0.6656738498112963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01812818540173097</v>
+        <v>-0.02673782027814928</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.081734332363509</v>
+        <v>1.079209298844959</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7507426527564761</v>
+        <v>0.7378607236281128</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01030820373760466</v>
+        <v>0.003136602468143119</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.579864972826357</v>
+        <v>1.588669996986096</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.091291393513812</v>
+        <v>1.082855933129478</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2200915359898186</v>
+        <v>0.2207775477987219</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.228574764882517</v>
+        <v>1.212761739174691</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9260855750443171</v>
+        <v>0.9191345715201661</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1509628448909027</v>
+        <v>0.1452209928183803</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.316062790090531</v>
+        <v>1.305706052764481</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9592081376916332</v>
+        <v>0.9515708834238754</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1516268499940328</v>
+        <v>0.1512375138884162</v>
       </c>
     </row>
     <row r="28">
